--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_Remoter\touchGFX\Application\assets\texts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_new\touchGFX\Application\assets\texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
     <sheet name="Translation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" calcMode="manual" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="181">
   <si>
     <t>Font</t>
   </si>
@@ -724,12 +724,60 @@
     <t>!"#$%&amp;'()*+,-./0123456789:;&lt;=&gt;?@ABCDEFGHIJKLMNOPQRSTUVWXYZ[\]^_`abcdefghijklmnopqrstuvwxyz{|}~ ¡¢£¤¥¦§¨©ª«¬­®¯°±²³´µ¶·¸¹º»¼½¾¿</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>EnteredText</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>&lt;placeholder&gt;</t>
+  </si>
+  <si>
+    <t>NumMode</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>AlphaMode</t>
+  </si>
+  <si>
+    <r>
+      <t>123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Ubuntu"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>RobotoCondensed-Regular.ttf</t>
+  </si>
+  <si>
+    <t>!”"#*%&amp;()'$+-@_, .:;?/~±×÷•º`´{}©£€^®¥_=[]¡¢|\¿&gt;&lt;</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>!”"#*%&amp;()'$+-@_, .:;?/~±×÷•º`´{}©£€^®¥_=[]¡¢|\¿&gt;&lt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -787,6 +835,25 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -977,7 +1044,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1059,8 +1126,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1095,11 +1163,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="81" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="81" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="81" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="82">
     <cellStyle name="Normal 10" xfId="1"/>
     <cellStyle name="Normal 10 2" xfId="2"/>
     <cellStyle name="Normal 11" xfId="3"/>
@@ -1111,6 +1184,7 @@
     <cellStyle name="Normal 16" xfId="9"/>
     <cellStyle name="Normal 16 2" xfId="10"/>
     <cellStyle name="Normal 16 3" xfId="11"/>
+    <cellStyle name="Normal 17" xfId="81"/>
     <cellStyle name="Normal 17 2" xfId="12"/>
     <cellStyle name="Normal 17 3" xfId="13"/>
     <cellStyle name="Normal 2" xfId="14"/>
@@ -1877,13 +1951,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O19"/>
+  <dimension ref="B1:O22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
@@ -1891,7 +1965,7 @@
     <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="4.5703125" customWidth="1"/>
@@ -1902,25 +1976,25 @@
     <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -1946,7 +2020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" t="s">
         <v>151</v>
       </c>
@@ -1975,7 +2049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" t="s">
         <v>41</v>
       </c>
@@ -2002,7 +2076,7 @@
       </c>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" t="s">
         <v>96</v>
       </c>
@@ -2029,7 +2103,7 @@
       </c>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" t="s">
         <v>57</v>
       </c>
@@ -2064,7 +2138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" t="s">
         <v>44</v>
       </c>
@@ -2091,7 +2165,7 @@
       </c>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" t="s">
         <v>59</v>
       </c>
@@ -2120,7 +2194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" t="s">
         <v>68</v>
       </c>
@@ -2147,7 +2221,7 @@
       </c>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" t="s">
         <v>81</v>
       </c>
@@ -2168,7 +2242,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" t="s">
         <v>99</v>
       </c>
@@ -2191,7 +2265,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" t="s">
         <v>140</v>
       </c>
@@ -2205,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" t="s">
         <v>155</v>
       </c>
@@ -2219,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" t="s">
         <v>145</v>
       </c>
@@ -2236,7 +2310,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" t="s">
         <v>150</v>
       </c>
@@ -2256,7 +2330,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
         <v>153</v>
       </c>
@@ -2270,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>157</v>
       </c>
@@ -2284,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="B19" t="s">
         <v>159</v>
       </c>
@@ -2299,6 +2373,66 @@
       </c>
       <c r="F19" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="22">
+        <v>28</v>
+      </c>
+      <c r="E20" s="22">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="22">
+        <v>20</v>
+      </c>
+      <c r="E21" s="22">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="22">
+        <v>24</v>
+      </c>
+      <c r="E22" s="22">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2319,23 +2453,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J60"/>
+  <dimension ref="B1:J63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="0.28515625" customWidth="1"/>
     <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -2345,22 +2480,22 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2386,7 +2521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
         <v>56</v>
       </c>
@@ -2400,7 +2535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -2414,7 +2549,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -2428,7 +2563,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" t="s">
         <v>58</v>
       </c>
@@ -2442,7 +2577,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -2456,7 +2591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" t="s">
         <v>52</v>
       </c>
@@ -2470,7 +2605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" t="s">
         <v>54</v>
       </c>
@@ -2484,7 +2619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" t="s">
         <v>60</v>
       </c>
@@ -2498,7 +2633,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" t="s">
         <v>61</v>
       </c>
@@ -2512,7 +2647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" t="s">
         <v>62</v>
       </c>
@@ -2526,7 +2661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>63</v>
       </c>
@@ -2540,7 +2675,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>64</v>
       </c>
@@ -2554,7 +2689,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" t="s">
         <v>65</v>
       </c>
@@ -2568,7 +2703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -2582,7 +2717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -2596,7 +2731,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>72</v>
       </c>
@@ -2610,7 +2745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -2624,7 +2759,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>76</v>
       </c>
@@ -2638,7 +2773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>78</v>
       </c>
@@ -2652,7 +2787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
         <v>80</v>
       </c>
@@ -2666,7 +2801,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" t="s">
         <v>83</v>
       </c>
@@ -2680,7 +2815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" t="s">
         <v>85</v>
       </c>
@@ -2694,7 +2829,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -2708,7 +2843,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
         <v>88</v>
       </c>
@@ -2722,7 +2857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
         <v>89</v>
       </c>
@@ -2736,7 +2871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -2750,7 +2885,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
         <v>102</v>
       </c>
@@ -2764,7 +2899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
         <v>104</v>
       </c>
@@ -2778,7 +2913,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" t="s">
         <v>106</v>
       </c>
@@ -2792,7 +2927,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>108</v>
       </c>
@@ -2806,7 +2941,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>110</v>
       </c>
@@ -2820,7 +2955,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>112</v>
       </c>
@@ -2834,7 +2969,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>114</v>
       </c>
@@ -2848,7 +2983,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>116</v>
       </c>
@@ -2862,7 +2997,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
         <v>117</v>
       </c>
@@ -2876,7 +3011,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>118</v>
       </c>
@@ -2890,7 +3025,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>119</v>
       </c>
@@ -2904,7 +3039,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
         <v>120</v>
       </c>
@@ -2918,7 +3053,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
         <v>121</v>
       </c>
@@ -2932,7 +3067,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
         <v>122</v>
       </c>
@@ -2946,7 +3081,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
         <v>123</v>
       </c>
@@ -2960,7 +3095,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5">
       <c r="B45" t="s">
         <v>124</v>
       </c>
@@ -2974,7 +3109,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5">
       <c r="B46" t="s">
         <v>125</v>
       </c>
@@ -2988,7 +3123,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5">
       <c r="B47" t="s">
         <v>126</v>
       </c>
@@ -3002,7 +3137,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5">
       <c r="B48" t="s">
         <v>127</v>
       </c>
@@ -3016,7 +3151,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5">
       <c r="B49" t="s">
         <v>146</v>
       </c>
@@ -3030,7 +3165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
         <v>143</v>
       </c>
@@ -3044,7 +3179,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5">
       <c r="B51" t="s">
         <v>144</v>
       </c>
@@ -3058,7 +3193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5">
       <c r="B52" t="s">
         <v>142</v>
       </c>
@@ -3072,7 +3207,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5">
       <c r="B53" t="s">
         <v>147</v>
       </c>
@@ -3086,7 +3221,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5">
       <c r="B54" t="s">
         <v>152</v>
       </c>
@@ -3100,7 +3235,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5">
       <c r="B55" t="s">
         <v>156</v>
       </c>
@@ -3114,7 +3249,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5">
       <c r="B56" t="s">
         <v>97</v>
       </c>
@@ -3128,7 +3263,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="B57" t="s">
         <v>160</v>
       </c>
@@ -3142,7 +3277,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5">
       <c r="B58" t="s">
         <v>158</v>
       </c>
@@ -3156,7 +3291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5">
       <c r="B59" t="s">
         <v>162</v>
       </c>
@@ -3170,7 +3305,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
         <v>165</v>
       </c>
@@ -3182,6 +3317,48 @@
       </c>
       <c r="E60" s="1" t="s">
         <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_new\touchGFX\Application\assets\texts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="185">
   <si>
     <t>Font</t>
   </si>
@@ -284,37 +279,6 @@
   </si>
   <si>
     <t>Datepicker_Day_28</t>
-  </si>
-  <si>
-    <t>1
-2
-3
-4
-5
-6
-7
-8
-9
-10
-11
-12
-13
-14
-15
-16
-17
-18
-19
-20
-21
-22
-23
-24
-25
-26
-27
-28</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Datepicker_Day_29</t>
@@ -770,6 +734,58 @@
   </si>
   <si>
     <t>!”"#*%&amp;()'$+-@_, .:;?/~±×÷•º`´{}©£€^®¥_=[]¡¢|\¿&gt;&lt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_picker_duration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleepduration</t>
+  </si>
+  <si>
+    <t>Sleepduration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1
+2
+3
+4
+5
+6
+7
+8
+9
+10
+11
+12
+13
+14
+15
+16
+17
+18
+19
+20
+21
+22
+23
+24
+25
+26
+27
+28</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 sec
+30 sec
+1 min
+2 min
+5 min
+15 min
+30 min</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1128,7 +1144,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1168,8 +1184,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="81" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="81" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1951,29 +1973,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O22"/>
+  <dimension ref="B1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -1982,19 +2004,19 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
+      <c r="B2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2022,7 +2044,7 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -2078,7 +2100,7 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -2117,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -2223,7 +2245,7 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -2235,16 +2257,16 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
         <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -2256,10 +2278,10 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>35</v>
@@ -2267,7 +2289,7 @@
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -2281,10 +2303,10 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14">
         <v>75</v>
@@ -2295,7 +2317,7 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2307,12 +2329,12 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -2327,12 +2349,12 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -2346,7 +2368,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -2360,7 +2382,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -2377,10 +2399,10 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="22">
         <v>28</v>
@@ -2392,18 +2414,18 @@
         <v>25</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="22">
         <v>20</v>
@@ -2415,23 +2437,37 @@
         <v>25</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="22">
         <v>24</v>
       </c>
       <c r="E22" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="22">
+        <v>16</v>
+      </c>
+      <c r="E23" s="22">
         <v>4</v>
       </c>
     </row>
@@ -2453,21 +2489,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J63"/>
+  <dimension ref="B1:J64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2480,17 +2516,17 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:10" ht="39.9" customHeight="1">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -2529,7 +2565,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -2731,7 +2767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" ht="409.6">
       <c r="B19" t="s">
         <v>72</v>
       </c>
@@ -2741,13 +2777,13 @@
       <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
-        <v>73</v>
+      <c r="E19" s="29" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -2756,12 +2792,12 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -2770,12 +2806,12 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -2784,43 +2820,43 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -2831,21 +2867,21 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
         <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -2859,24 +2895,24 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
         <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
         <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>66</v>
@@ -2887,276 +2923,276 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
         <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
         <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
         <v>106</v>
-      </c>
-      <c r="C32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
         <v>110</v>
-      </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
         <v>114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
         <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
@@ -3167,10 +3203,10 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
@@ -3181,10 +3217,10 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
         <v>144</v>
-      </c>
-      <c r="C51" t="s">
-        <v>145</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -3195,170 +3231,184 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
         <v>147</v>
-      </c>
-      <c r="C53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
         <v>152</v>
       </c>
-      <c r="C54" t="s">
-        <v>153</v>
-      </c>
       <c r="D54" t="s">
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
         <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
         <v>66</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="D61" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>172</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>173</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="187.2">
+      <c r="B64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_new\touchGFX\Application\assets\texts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
     <sheet name="Translation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" fullPrecision="0"/>
+  <calcPr calcId="145621" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
   <si>
     <t>Font</t>
   </si>
@@ -279,6 +284,37 @@
   </si>
   <si>
     <t>Datepicker_Day_28</t>
+  </si>
+  <si>
+    <t>1
+2
+3
+4
+5
+6
+7
+8
+9
+10
+11
+12
+13
+14
+15
+16
+17
+18
+19
+20
+21
+22
+23
+24
+25
+26
+27
+28</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Datepicker_Day_29</t>
@@ -737,45 +773,60 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Percentage_Bar_readout</t>
+  </si>
+  <si>
+    <t>PercentageBarReadout</t>
+  </si>
+  <si>
+    <t>&lt;value&gt;%</t>
+  </si>
+  <si>
+    <t>Percentage_Bar_headline</t>
+  </si>
+  <si>
+    <t>PercentageBarHeadline</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>BackLight  Level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>time_picker_duration</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Sleepduration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Sleepduration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1
-2
-3
-4
-5
-6
-7
-8
-9
-10
-11
-12
-13
-14
-15
-16
-17
-18
-19
-20
-21
-22
-23
-24
-25
-26
-27
-28</t>
+  </si>
+  <si>
+    <t>SleepWheel_headline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepWheel_readout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>of inactivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep
+after</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -784,8 +835,45 @@
 1 min
 2 min
 5 min
-15 min
+10 min
 30 min</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordEdit</t>
+  </si>
+  <si>
+    <t>passwordheadline</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConnectHeadline</t>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CANCLE</t>
+  </si>
+  <si>
+    <t>passwordHeadline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonOK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonCancle</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1144,7 +1232,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1187,11 +1275,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="82">
@@ -1554,7 +1645,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:I100" totalsRowShown="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:I97" totalsRowShown="0" tableBorderDxfId="10">
   <sortState ref="B4:E6">
     <sortCondition descending="1" ref="B3:B65536"/>
   </sortState>
@@ -1586,7 +1677,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I796" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I795" totalsRowShown="0" tableBorderDxfId="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Text ID"/>
     <tableColumn id="2" name="Typography Name"/>
@@ -1973,29 +2064,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O23"/>
+  <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2004,19 +2095,19 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2044,7 +2135,7 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -2053,7 +2144,7 @@
         <v>16</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>17</v>
@@ -2082,7 +2173,7 @@
         <v>40</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>1</v>
@@ -2100,7 +2191,7 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -2109,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>2</v>
@@ -2129,20 +2220,20 @@
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
+      <c r="C7" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="D7">
         <v>16</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -2171,7 +2262,7 @@
         <v>16</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
@@ -2198,7 +2289,7 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>14</v>
@@ -2227,7 +2318,7 @@
         <v>16</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>36</v>
@@ -2245,7 +2336,7 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -2254,19 +2345,19 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -2275,13 +2366,13 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
         <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>99</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>35</v>
@@ -2289,7 +2380,7 @@
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -2298,26 +2389,26 @@
         <v>16</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
         <v>154</v>
-      </c>
-      <c r="C14" t="s">
-        <v>153</v>
       </c>
       <c r="D14">
         <v>75</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2326,15 +2417,15 @@
         <v>60</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -2343,18 +2434,18 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -2363,12 +2454,12 @@
         <v>18</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -2377,12 +2468,12 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -2391,7 +2482,7 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>25</v>
@@ -2399,10 +2490,10 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D20" s="22">
         <v>28</v>
@@ -2414,18 +2505,18 @@
         <v>25</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D21" s="22">
         <v>20</v>
@@ -2437,18 +2528,18 @@
         <v>25</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D22" s="22">
         <v>24</v>
@@ -2459,15 +2550,77 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="22">
+        <v>177</v>
+      </c>
+      <c r="D23" s="1">
         <v>16</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="22">
+        <v>16</v>
+      </c>
+      <c r="E25" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
         <v>4</v>
       </c>
     </row>
@@ -2489,21 +2642,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J64"/>
+  <dimension ref="B1:J73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2516,17 +2669,17 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.9" customHeight="1">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="J2" t="s">
         <v>13</v>
       </c>
@@ -2565,7 +2718,7 @@
         <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -2739,7 +2892,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" ht="345">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -2749,11 +2902,11 @@
       <c r="D17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" ht="375">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -2763,11 +2916,11 @@
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="409.6">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>72</v>
       </c>
@@ -2777,13 +2930,13 @@
       <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>183</v>
+      <c r="E19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -2792,12 +2945,12 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -2806,12 +2959,12 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -2820,43 +2973,43 @@
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
         <v>66</v>
@@ -2867,21 +3020,21 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>57</v>
@@ -2895,24 +3048,24 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>66</v>
@@ -2923,276 +3076,276 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" t="s">
         <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
         <v>139</v>
       </c>
-      <c r="D48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
@@ -3201,12 +3354,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
@@ -3215,12 +3368,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:6">
       <c r="B51" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
         <v>66</v>
@@ -3229,186 +3382,311 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
         <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" t="s">
         <v>149</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>148</v>
       </c>
-      <c r="E53" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
         <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D56" t="s">
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
         <v>159</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" t="s">
         <v>158</v>
       </c>
-      <c r="D57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" t="s">
-        <v>157</v>
-      </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
         <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>66</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E62" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="22" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="B63" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="187.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D64" s="22" t="s">
-        <v>42</v>
+      <c r="D64" t="s">
+        <v>66</v>
       </c>
       <c r="E64" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="1" t="s">
         <v>184</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="28"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="30">
+      <c r="B67" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="195">
+      <c r="B68" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+      <c r="E72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_new\touchGFX\Application\assets\texts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
   <si>
     <t>Font</t>
   </si>
@@ -874,6 +869,30 @@
   </si>
   <si>
     <t>buttonCancle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold to Talk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Send</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide up to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelRecord</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2070,23 +2089,23 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2095,7 +2114,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -2107,7 +2126,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2642,21 +2661,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J73"/>
+  <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2669,7 +2688,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="2:10" ht="39.9" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -2892,7 +2911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="345">
+    <row r="17" spans="2:5" ht="331.2">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -2906,7 +2925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="375">
+    <row r="18" spans="2:5" ht="360">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -3591,7 +3610,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="30">
+    <row r="67" spans="2:6" ht="28.8">
       <c r="B67" s="1" t="s">
         <v>192</v>
       </c>
@@ -3605,7 +3624,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="195">
+    <row r="68" spans="2:6" ht="187.2">
       <c r="B68" s="1" t="s">
         <v>189</v>
       </c>
@@ -3687,6 +3706,48 @@
       </c>
       <c r="E73" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" t="s">
+        <v>202</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D75" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_new\touchGFX\Application\assets\texts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
     <sheet name="Translation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" fullPrecision="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" calcMode="manual" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="219">
   <si>
     <t>Font</t>
   </si>
@@ -820,21 +825,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Sleep
-after</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 sec
-30 sec
-1 min
-2 min
-5 min
-10 min
-30 min</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>passwordEdit</t>
   </si>
   <si>
@@ -888,11 +878,34 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>CancelRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Slide up to Cancel</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>CancelRecord</t>
+    <t>releaseCancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep after</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucon.TTF</t>
+  </si>
+  <si>
+    <t>15 30 1 2 5 10 30</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2086,26 +2099,26 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2114,7 +2127,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
+    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2139,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2605,8 +2618,8 @@
       <c r="B25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>177</v>
+      <c r="C25" t="s">
+        <v>217</v>
       </c>
       <c r="D25" s="22">
         <v>16</v>
@@ -2617,10 +2630,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2631,7 +2644,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2661,21 +2674,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J76"/>
+  <dimension ref="B1:J77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2688,7 +2701,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.9" customHeight="1">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +2924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="331.2">
+    <row r="17" spans="2:5" ht="345">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -2925,7 +2938,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="360">
+    <row r="18" spans="2:5" ht="375">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -3610,7 +3623,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="28.8">
+    <row r="67" spans="2:6">
       <c r="B67" s="1" t="s">
         <v>192</v>
       </c>
@@ -3621,10 +3634,10 @@
         <v>194</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="187.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="1" t="s">
         <v>189</v>
       </c>
@@ -3635,12 +3648,12 @@
         <v>42</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
         <v>151</v>
@@ -3654,21 +3667,21 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D70" t="s">
         <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C71" t="s">
         <v>151</v>
@@ -3682,72 +3695,86 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D73" t="s">
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D74" t="s">
         <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
         <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
         <v>66</v>
       </c>
       <c r="E76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="1" t="s">
         <v>213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_new\touchGFX\Application\assets\texts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="221">
   <si>
     <t>Font</t>
   </si>
@@ -821,10 +816,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>of inactivity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>passwordEdit</t>
   </si>
   <si>
@@ -894,6 +885,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep after &lt;value&gt; of inactivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Sleep after</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -903,9 +910,6 @@
   </si>
   <si>
     <t>lucon.TTF</t>
-  </si>
-  <si>
-    <t>15 30 1 2 5 10 30</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2098,27 +2102,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2127,7 +2131,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2143,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2584,8 +2588,8 @@
       <c r="B23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>177</v>
+      <c r="C23" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="1">
         <v>16</v>
@@ -2604,8 +2608,8 @@
       <c r="B24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>177</v>
+      <c r="C24" t="s">
+        <v>219</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
@@ -2619,7 +2623,7 @@
         <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D25" s="22">
         <v>16</v>
@@ -2630,10 +2634,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2644,7 +2648,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2676,19 +2680,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2701,7 +2705,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="2:10" ht="39.9" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="345">
+    <row r="17" spans="2:5" ht="331.2">
       <c r="B17" t="s">
         <v>67</v>
       </c>
@@ -2938,7 +2942,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="375">
+    <row r="18" spans="2:5" ht="360">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -3620,7 +3624,7 @@
         <v>66</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="2:6">
@@ -3634,7 +3638,7 @@
         <v>194</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -3648,12 +3652,12 @@
         <v>42</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
         <v>151</v>
@@ -3667,21 +3671,21 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="s">
         <v>197</v>
-      </c>
-      <c r="D70" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
         <v>151</v>
@@ -3690,91 +3694,91 @@
         <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D73" t="s">
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
         <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D75" t="s">
         <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
         <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -801,115 +801,116 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>SleepWheel_headline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepWheel_readout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordEdit</t>
+  </si>
+  <si>
+    <t>passwordheadline</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConnectHeadline</t>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CANCLE</t>
+  </si>
+  <si>
+    <t>passwordHeadline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonOK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonCancle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold to Talk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Send</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide up to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>releaseCancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep after &lt;value&gt; of inactivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep after</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucon.TTF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Sleepduration</t>
-  </si>
-  <si>
-    <t>SleepWheel_headline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepWheel_readout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordEdit</t>
-  </si>
-  <si>
-    <t>passwordheadline</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ConnectHeadline</t>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>CANCLE</t>
-  </si>
-  <si>
-    <t>passwordHeadline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonOK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonCancle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>startRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold to Talk</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>endRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Send</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slide up to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>releaseCancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;value&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep after &lt;value&gt; of inactivity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep after</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lucon.TTF</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2103,7 +2104,7 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2609,7 +2610,7 @@
         <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
@@ -2620,13 +2621,13 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="22">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" s="22">
         <v>4</v>
@@ -2634,10 +2635,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2648,7 +2649,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2681,7 +2682,7 @@
   <dimension ref="B1:J77"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3615,7 +3616,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>185</v>
@@ -3624,21 +3625,21 @@
         <v>66</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="2:6">
@@ -3652,12 +3653,12 @@
         <v>42</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s">
         <v>151</v>
@@ -3671,21 +3672,21 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" t="s">
         <v>196</v>
-      </c>
-      <c r="D70" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
         <v>151</v>
@@ -3694,91 +3695,91 @@
         <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D74" t="s">
         <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D75" t="s">
         <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D76" t="s">
         <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D77" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="218">
   <si>
     <t>Font</t>
   </si>
@@ -793,124 +793,112 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Sleepduration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepWheel_readout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordEdit</t>
+  </si>
+  <si>
+    <t>passwordheadline</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConnectHeadline</t>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CANCLE</t>
+  </si>
+  <si>
+    <t>passwordHeadline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonOK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonCancle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold to Talk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Send</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide up to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>releaseCancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep after &lt;value&gt; of inactivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucon.TTF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleepduration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>time_picker_duration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleepduration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepWheel_headline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepWheel_readout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordEdit</t>
-  </si>
-  <si>
-    <t>passwordheadline</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ConnectHeadline</t>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>CANCLE</t>
-  </si>
-  <si>
-    <t>passwordHeadline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonOK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonCancle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>startRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold to Talk</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>endRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Send</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slide up to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>releaseCancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;value&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep after &lt;value&gt; of inactivity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep after</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lucon.TTF</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleepduration</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1714,7 +1702,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I795" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I794" totalsRowShown="0" tableBorderDxfId="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Text ID"/>
     <tableColumn id="2" name="Typography Name"/>
@@ -2103,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2610,7 +2598,7 @@
         <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
@@ -2621,10 +2609,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D25" s="22">
         <v>12</v>
@@ -2635,10 +2623,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2649,7 +2637,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2679,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J77"/>
+  <dimension ref="B1:J76"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3616,7 +3604,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>185</v>
@@ -3625,161 +3613,147 @@
         <v>66</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="1" t="s">
-        <v>189</v>
-      </c>
       <c r="C68" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="29" t="s">
-        <v>216</v>
+        <v>151</v>
+      </c>
+      <c r="D68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="D69" t="s">
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
         <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E71" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D73" t="s">
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D74" t="s">
         <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
         <v>66</v>
       </c>
       <c r="E75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" t="s">
-        <v>209</v>
-      </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" t="s">
         <v>66</v>
       </c>
-      <c r="E76" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>212</v>
+      <c r="E76" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="223">
   <si>
     <t>Font</t>
   </si>
@@ -801,104 +801,125 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>passwordheadline</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConnectHeadline</t>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CANCLE</t>
+  </si>
+  <si>
+    <t>passwordHeadline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonOK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonCancle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold to Talk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Send</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide up to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>releaseCancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucon.TTF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleepduration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_picker_duration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentageBarReadout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>passwordEdit</t>
-  </si>
-  <si>
-    <t>passwordheadline</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ConnectHeadline</t>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>CANCLE</t>
-  </si>
-  <si>
-    <t>passwordHeadline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonOK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonCancle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>startRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold to Talk</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>endRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Send</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slide up to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>releaseCancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;value&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep after &lt;value&gt; of inactivity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lucon.TTF</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleepduration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_picker_duration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>after &lt;value&gt; of inactivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepWheel_headline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1702,7 +1723,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I794" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I795" totalsRowShown="0" tableBorderDxfId="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Text ID"/>
     <tableColumn id="2" name="Typography Name"/>
@@ -2091,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2515,13 +2536,13 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="22" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>177</v>
       </c>
       <c r="D20" s="22">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E20" s="22">
         <v>4</v>
@@ -2598,7 +2619,7 @@
         <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
@@ -2609,10 +2630,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D25" s="22">
         <v>12</v>
@@ -2623,10 +2644,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2637,7 +2658,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2667,10 +2688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J76"/>
+  <dimension ref="B1:J77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3580,7 +3601,7 @@
         <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -3604,7 +3625,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>185</v>
@@ -3613,147 +3634,161 @@
         <v>66</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="C67" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" t="s">
-        <v>43</v>
+      <c r="E68" s="29" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
         <v>42</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D70" t="s">
         <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D73" t="s">
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
         <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D75" t="s">
         <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="1" t="s">
-        <v>208</v>
+      <c r="B76" t="s">
+        <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
         <v>66</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>209</v>
+      <c r="E76" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>194</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
   <si>
     <t>Font</t>
   </si>
@@ -807,115 +807,124 @@
     <t>Password</t>
   </si>
   <si>
+    <t>ButtonFont</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CANCLE</t>
+  </si>
+  <si>
+    <t>passwordHeadline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonOK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonCancle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold to Talk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Send</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide up to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>releaseCancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucon.TTF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleepduration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_picker_duration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentageBarReadout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEFT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordEdit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>after &lt;value&gt; of inactivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepWheel_headline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>ConnectHeadline</t>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>CANCLE</t>
-  </si>
-  <si>
-    <t>passwordHeadline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonOK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonCancle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>startRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold to Talk</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>endRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Send</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slide up to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>releaseCancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;value&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lucon.TTF</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleepduration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_picker_duration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>PercentageBarReadout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEFT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordEdit</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>after &lt;value&gt; of inactivity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepWheel_headline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateText</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2113,7 +2122,7 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2536,7 +2545,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>177</v>
@@ -2619,7 +2628,7 @@
         <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
@@ -2630,10 +2639,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D25" s="22">
         <v>12</v>
@@ -2647,7 +2656,7 @@
         <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2658,7 +2667,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2688,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J77"/>
+  <dimension ref="B1:J78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3125,7 +3134,7 @@
         <v>102</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
@@ -3139,7 +3148,7 @@
         <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
         <v>42</v>
@@ -3153,7 +3162,7 @@
         <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
@@ -3167,7 +3176,7 @@
         <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
         <v>42</v>
@@ -3181,7 +3190,7 @@
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>
@@ -3195,7 +3204,7 @@
         <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
@@ -3209,7 +3218,7 @@
         <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
         <v>42</v>
@@ -3601,7 +3610,7 @@
         <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -3625,7 +3634,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>185</v>
@@ -3634,7 +3643,7 @@
         <v>66</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="2:6">
@@ -3648,26 +3657,26 @@
         <v>66</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C68" t="s">
         <v>189</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
         <v>151</v>
@@ -3681,7 +3690,7 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
         <v>191</v>
@@ -3695,7 +3704,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="C71" t="s">
         <v>151</v>
@@ -3704,91 +3713,105 @@
         <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D72" t="s">
         <v>66</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" t="s">
         <v>66</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
         <v>66</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D75" t="s">
         <v>66</v>
       </c>
       <c r="E75" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D76" t="s">
         <v>66</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D77" t="s">
         <v>66</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="226">
   <si>
     <t>Font</t>
   </si>
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t>Wifi</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remoter</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -929,6 +925,14 @@
   </si>
   <si>
     <t>Display</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>This demo don't support Remoter,please click the screen go to main menu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remoter</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2190,7 +2194,7 @@
     </row>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
@@ -2246,7 +2250,7 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -2273,10 +2277,10 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -2285,10 +2289,10 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -2335,7 +2339,7 @@
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -2364,7 +2368,7 @@
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -2391,7 +2395,7 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -2403,16 +2407,16 @@
         <v>4</v>
       </c>
       <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
         <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -2424,10 +2428,10 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>35</v>
@@ -2435,7 +2439,7 @@
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -2449,10 +2453,10 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D14">
         <v>75</v>
@@ -2463,7 +2467,7 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -2475,12 +2479,12 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -2495,12 +2499,12 @@
         <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -2514,7 +2518,7 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -2528,7 +2532,7 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -2545,10 +2549,10 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D20" s="22">
         <v>16</v>
@@ -2560,18 +2564,18 @@
         <v>25</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D21" s="22">
         <v>20</v>
@@ -2583,18 +2587,18 @@
         <v>25</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="22">
         <v>24</v>
@@ -2605,7 +2609,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
@@ -2617,18 +2621,18 @@
         <v>4</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" t="s">
         <v>186</v>
-      </c>
-      <c r="H23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
@@ -2639,10 +2643,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D25" s="22">
         <v>12</v>
@@ -2653,10 +2657,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2667,7 +2671,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2699,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2767,13 +2771,13 @@
     </row>
     <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
@@ -2787,7 +2791,7 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -2801,7 +2805,7 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
         <v>48</v>
@@ -2809,69 +2813,69 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -2879,13 +2883,13 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>48</v>
@@ -2893,181 +2897,181 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="331.2">
       <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="360">
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
         <v>43</v>
@@ -3075,24 +3079,24 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
         <v>42</v>
@@ -3103,27 +3107,27 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
         <v>98</v>
       </c>
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>43</v>
@@ -3131,276 +3135,276 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
         <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D36" t="s">
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
         <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
         <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
         <v>42</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
         <v>42</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
         <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
         <v>42</v>
@@ -3411,13 +3415,13 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
         <v>43</v>
@@ -3425,13 +3429,13 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
         <v>144</v>
       </c>
-      <c r="C51" t="s">
-        <v>145</v>
-      </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
         <v>43</v>
@@ -3439,247 +3443,247 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
         <v>147</v>
-      </c>
-      <c r="C53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
         <v>152</v>
-      </c>
-      <c r="C54" t="s">
-        <v>153</v>
       </c>
       <c r="D54" t="s">
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" t="s">
         <v>162</v>
-      </c>
-      <c r="C59" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>170</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E61" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="D62" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="D62" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F64" s="27"/>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E65" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F65" s="28"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
         <v>42</v>
@@ -3690,128 +3694,128 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
         <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
         <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D72" t="s">
+        <v>65</v>
+      </c>
+      <c r="E72" t="s">
         <v>193</v>
-      </c>
-      <c r="D72" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" t="s">
         <v>200</v>
-      </c>
-      <c r="C74" t="s">
-        <v>193</v>
-      </c>
-      <c r="D74" t="s">
-        <v>66</v>
-      </c>
-      <c r="E74" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" t="s">
+        <v>192</v>
+      </c>
+      <c r="D75" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" t="s">
         <v>202</v>
-      </c>
-      <c r="C75" t="s">
-        <v>193</v>
-      </c>
-      <c r="D75" t="s">
-        <v>66</v>
-      </c>
-      <c r="E75" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" t="s">
         <v>204</v>
-      </c>
-      <c r="C76" t="s">
-        <v>193</v>
-      </c>
-      <c r="D76" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C77" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="228">
   <si>
     <t>Font</t>
   </si>
@@ -933,6 +933,14 @@
   </si>
   <si>
     <t>Remoter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadingtxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2126,7 +2134,7 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2701,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J78"/>
+  <dimension ref="B1:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3818,6 +3826,20 @@
         <v>220</v>
       </c>
     </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_Remoter_changer\L2200_Remoter\touchGFX\Application\assets\texts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="240">
   <si>
     <t>Font</t>
   </si>
@@ -754,141 +759,194 @@
     <t>RobotoCondensed-Regular.ttf</t>
   </si>
   <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Percentage_Bar_readout</t>
+  </si>
+  <si>
+    <t>PercentageBarReadout</t>
+  </si>
+  <si>
+    <t>&lt;value&gt;%</t>
+  </si>
+  <si>
+    <t>Percentage_Bar_headline</t>
+  </si>
+  <si>
+    <t>PercentageBarHeadline</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0-9</t>
+  </si>
+  <si>
+    <t>BackLight  Level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleepduration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepWheel_readout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordheadline</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>CANCLE</t>
+  </si>
+  <si>
+    <t>passwordHeadline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ButtonFont</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonOK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonCancle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>startRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hold to Talk</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>endRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Send</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelRecord</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slide up to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>releaseCancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to Cancel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verdana.ttf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucon.TTF</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleepduration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_picker_duration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentageBarReadout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwordEdit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleep</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>after &lt;value&gt; of inactivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SleepWheel_headline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectHeadline</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateText</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>This demo don't support Remoter,please click the screen go to main menu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remoter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>To see available networks,turn on wifi by clicking the top right corner of the button</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>!”"#*%&amp;()'$+-@_, .:;?/~±×÷•º`´{}©£€^®¥_=[]¡¢|\¿&gt;&lt;</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>!”"#*%&amp;()'$+-@_, .:;?/~±×÷•º`´{}©£€^®¥_=[]¡¢|\¿&gt;&lt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Percentage_Bar_readout</t>
-  </si>
-  <si>
-    <t>PercentageBarReadout</t>
-  </si>
-  <si>
-    <t>&lt;value&gt;%</t>
-  </si>
-  <si>
-    <t>Percentage_Bar_headline</t>
-  </si>
-  <si>
-    <t>PercentageBarHeadline</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>0-9</t>
-  </si>
-  <si>
-    <t>BackLight  Level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleepduration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepWheel_readout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>passwordheadline</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>CANCLE</t>
-  </si>
-  <si>
-    <t>passwordHeadline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonFont</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonOK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonCancle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>startRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hold to Talk</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>endRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Send</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelRecord</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slide up to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>releaseCancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Release to Cancel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;value&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>15sec     30sec      1min      2min      5min     10min     30min</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verdana.ttf</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>lucon.TTF</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleepduration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_picker_duration</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>PercentageBarReadout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BtControlDevicesTitle</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -896,43 +954,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>passwordEdit</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleep</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>after &lt;value&gt; of inactivity</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>SleepWheel_headline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;value&gt;</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConnectHeadline</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateText</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Display</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>This demo don't support Remoter,please click the screen go to main menu</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remoter</t>
+    <t>Connected</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to connect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WifiTurnOnTips</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -940,8 +970,29 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Loading</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>Wifi_Connect_OK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifi_Connect_Fail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifi_Disconnect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disconnected</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>poweroffPop</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Power off ?</t>
   </si>
 </sst>
 </file>
@@ -2134,26 +2185,26 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2162,7 +2213,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
+    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2225,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2557,7 +2608,7 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="22" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>176</v>
@@ -2572,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="H20" t="s">
         <v>99</v>
@@ -2580,7 +2631,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>176</v>
@@ -2595,7 +2646,7 @@
         <v>25</v>
       </c>
       <c r="G21" s="26" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s">
         <v>99</v>
@@ -2617,7 +2668,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>40</v>
@@ -2629,18 +2680,18 @@
         <v>4</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
@@ -2651,10 +2702,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D25" s="22">
         <v>12</v>
@@ -2665,10 +2716,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D26">
         <v>14</v>
@@ -2679,7 +2730,7 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2709,21 +2760,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J79"/>
+  <dimension ref="B1:J84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84:E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2736,7 +2787,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.9" customHeight="1">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -2830,7 +2881,7 @@
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -2914,7 +2965,7 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -2959,7 +3010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="331.2">
+    <row r="17" spans="2:5" ht="345">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -2973,7 +3024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="360">
+    <row r="18" spans="2:5" ht="375">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -3619,76 +3670,76 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D64" t="s">
         <v>65</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F64" s="27"/>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F65" s="28"/>
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
         <v>65</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="2:6">
       <c r="B69" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
         <v>150</v>
@@ -3702,119 +3753,119 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D70" t="s">
         <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="2:6">
       <c r="B71" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
         <v>42</v>
       </c>
       <c r="E71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="2:6">
       <c r="B72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
         <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="2:6">
       <c r="B73" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D73" t="s">
         <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="2:6">
       <c r="B74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D74" t="s">
         <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="2:6">
       <c r="B75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
         <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="2:6">
       <c r="B76" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
         <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
         <v>65</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="2:6">
       <c r="B78" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C78" t="s">
         <v>150</v>
@@ -3823,21 +3874,91 @@
         <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="D79" t="s">
         <v>65</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>227</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_Remoter_changer\L2200_Remoter\touchGFX\Application\assets\texts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="243">
   <si>
     <t>Font</t>
   </si>
@@ -993,6 +988,18 @@
   </si>
   <si>
     <t>Power off ?</t>
+  </si>
+  <si>
+    <t>shutdownTxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shutting down</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1763,7 +1770,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:I97" totalsRowShown="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="B3:I98" totalsRowShown="0" tableBorderDxfId="10">
   <sortState ref="B4:E6">
     <sortCondition descending="1" ref="B3:B65536"/>
   </sortState>
@@ -2182,29 +2189,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O27"/>
+  <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2213,7 +2220,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2232,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2282,13 +2289,13 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -2309,13 +2316,13 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2336,23 +2343,17 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>176</v>
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" t="s">
-        <v>91</v>
-      </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
@@ -2371,10 +2372,10 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
+        <v>56</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>176</v>
       </c>
       <c r="D8">
         <v>16</v>
@@ -2382,6 +2383,12 @@
       <c r="E8">
         <v>4</v>
       </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2398,13 +2405,13 @@
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -2427,13 +2434,13 @@
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -2454,28 +2461,22 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>4</v>
       </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -2487,10 +2488,10 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>35</v>
@@ -2498,27 +2499,33 @@
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="2:15">
       <c r="B14" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -2526,58 +2533,58 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="H15" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="16" spans="2:15">
       <c r="B16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>160</v>
+      <c r="H16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -2591,53 +2598,44 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="22">
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
         <v>16</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20">
         <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="22" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>176</v>
       </c>
       <c r="D21" s="22">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" s="22">
         <v>4</v>
@@ -2645,7 +2643,7 @@
       <c r="F21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="25" t="s">
         <v>225</v>
       </c>
       <c r="H21" t="s">
@@ -2654,44 +2652,47 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="22" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>176</v>
       </c>
       <c r="D22" s="22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E22" s="22">
         <v>4</v>
       </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="B23" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="22">
+        <v>24</v>
+      </c>
+      <c r="E23" s="22">
         <v>4</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>16</v>
@@ -2699,46 +2700,66 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
+      <c r="G24" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="1">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>209</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D26" s="22">
         <v>12</v>
       </c>
-      <c r="E25" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26">
-        <v>14</v>
-      </c>
-      <c r="E26">
+      <c r="E26" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
         <v>190</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>12</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>4</v>
       </c>
     </row>
@@ -2760,21 +2781,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J84"/>
+  <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:E84"/>
+    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2787,7 +2808,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="2:10" ht="39.9" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -3010,7 +3031,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="345">
+    <row r="17" spans="2:5" ht="331.2">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -3024,7 +3045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="375">
+    <row r="18" spans="2:5" ht="360">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -3959,6 +3980,20 @@
       </c>
       <c r="E84" s="1" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_Remoter_changer\L2200_Remoter\touchGFX\Application\assets\texts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="256">
   <si>
     <t>Font</t>
   </si>
@@ -965,41 +970,89 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>Wifi_Connect_Fail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wifi_Disconnect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disconnected</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>poweroffPop</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Power off ?</t>
+  </si>
+  <si>
+    <t>shutdownTxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shutting down</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please wait, initialize the data channel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>micloading</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CENTER</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>micloadingFail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialize the data channel fail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>micreconnect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail,do you want to reconnect?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>Wifi_Connect_OK</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Wifi_Connect_Fail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wifi_Disconnect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disconnected</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>poweroffPop</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Power off ?</t>
-  </si>
-  <si>
-    <t>shutdownTxt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shutting down</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>Wifi_Connecting</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connecting…</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress_text</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>&lt;percent&gt;%</t>
+  </si>
+  <si>
+    <t>.-+</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1855,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I795" totalsRowShown="0" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="B3:I796" totalsRowShown="0" tableBorderDxfId="0">
   <tableColumns count="8">
     <tableColumn id="1" name="Text ID"/>
     <tableColumn id="2" name="Typography Name"/>
@@ -2189,29 +2242,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O28"/>
+  <dimension ref="B1:O29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B29" sqref="B29:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2220,7 +2273,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
+    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -2232,7 +2285,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2289,7 +2342,7 @@
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
@@ -2761,6 +2814,26 @@
       </c>
       <c r="E28">
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="1">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2781,21 +2854,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J85"/>
+  <dimension ref="B1:J90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2808,7 +2881,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.9" customHeight="1">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -3031,7 +3104,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="331.2">
+    <row r="17" spans="2:5" ht="345">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -3045,7 +3118,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="360">
+    <row r="18" spans="2:5" ht="375">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -3928,7 +4001,7 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>227</v>
@@ -3937,12 +4010,12 @@
         <v>228</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>227</v>
@@ -3951,12 +4024,12 @@
         <v>228</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>227</v>
@@ -3965,35 +4038,105 @@
         <v>228</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85" t="s">
-        <v>242</v>
+        <v>236</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C86" t="s">
         <v>241</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C88" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\L2200_TouchGFX\L2200_Remoter_changer\L2200_Remoter\touchGFX\Application\assets\texts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="260">
   <si>
     <t>Font</t>
   </si>
@@ -1053,6 +1048,22 @@
   </si>
   <si>
     <t>.-+</t>
+  </si>
+  <si>
+    <t>Sending</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicSendingTxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MicSendFinishTxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2244,27 +2255,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:H29"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="4.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
+    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2273,7 +2284,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
+    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2296,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1">
+    <row r="3" spans="2:15" ht="15" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2854,21 +2865,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J90"/>
+  <dimension ref="B1:J92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" customWidth="1"/>
+    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2881,7 +2892,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="2:10" ht="39.9" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -3104,7 +3115,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="345">
+    <row r="17" spans="2:5" ht="331.2">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -3118,7 +3129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="375">
+    <row r="18" spans="2:5" ht="360">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -4137,6 +4148,34 @@
       </c>
       <c r="E90" s="1" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" t="s">
+        <v>241</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C92" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/touchGFX/Application/assets/texts/texts.xlsx
+++ b/touchGFX/Application/assets/texts/texts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\L2200\L2200_Remoter\touchGFX\Application\assets\texts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Typography" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="262">
   <si>
     <t>Font</t>
   </si>
@@ -1063,6 +1068,14 @@
   </si>
   <si>
     <t>MicSendFinishTxt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT_Disconnect_Confirm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to disconnect the device?</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2259,23 +2272,23 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" customWidth="1"/>
-    <col min="11" max="11" width="20.109375" customWidth="1"/>
-    <col min="12" max="12" width="84.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="129" hidden="1" customHeight="1">
@@ -2284,7 +2297,7 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="2:15" ht="39.9" customHeight="1" thickBot="1">
+    <row r="2" spans="2:15" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2309,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="15" thickBot="1">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1">
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
@@ -2865,21 +2878,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J92"/>
+  <dimension ref="B1:J93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+      <selection activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" customWidth="1"/>
-    <col min="2" max="2" width="54.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="129" hidden="1" customHeight="1">
@@ -2892,7 +2905,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="2:10" ht="39.9" customHeight="1">
+    <row r="2" spans="2:10" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
@@ -3115,7 +3128,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="331.2">
+    <row r="17" spans="2:5" ht="345">
       <c r="B17" t="s">
         <v>66</v>
       </c>
@@ -3129,7 +3142,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="360">
+    <row r="18" spans="2:5" ht="375">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -4176,6 +4189,20 @@
       </c>
       <c r="E92" s="1" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
